--- a/teaching/traditional_assets/database/data/thailand/thailand_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_investments_asset_management.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0001799999999999998</v>
+        <v>-0.002849999999999998</v>
       </c>
       <c r="E2">
-        <v>-0.0249</v>
+        <v>-0.125</v>
       </c>
       <c r="G2">
-        <v>0.02071296865396435</v>
+        <v>0.04860779634049324</v>
       </c>
       <c r="H2">
-        <v>0.02071296865396435</v>
+        <v>0.04860779634049324</v>
       </c>
       <c r="I2">
-        <v>0.02408273818008323</v>
+        <v>0.06400306618370689</v>
       </c>
       <c r="J2">
-        <v>0.02243635055353941</v>
+        <v>0.05972805222105471</v>
       </c>
       <c r="K2">
-        <v>220.37</v>
+        <v>90.11</v>
       </c>
       <c r="L2">
-        <v>0.6772280270436387</v>
+        <v>0.716865552903739</v>
       </c>
       <c r="M2">
-        <v>107.34</v>
+        <v>111.48</v>
       </c>
       <c r="N2">
-        <v>0.05021754385964913</v>
+        <v>0.04229616420685207</v>
       </c>
       <c r="O2">
-        <v>0.4870898942687299</v>
+        <v>1.237154588835867</v>
       </c>
       <c r="P2">
-        <v>107.34</v>
+        <v>111.48</v>
       </c>
       <c r="Q2">
-        <v>0.05021754385964913</v>
+        <v>0.04229616420685207</v>
       </c>
       <c r="R2">
-        <v>0.4870898942687299</v>
+        <v>1.237154588835867</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>18.299</v>
+        <v>69.95</v>
       </c>
       <c r="V2">
-        <v>0.008560935672514619</v>
+        <v>0.02653943923815305</v>
       </c>
       <c r="W2">
-        <v>0.1256906077348066</v>
+        <v>0.06228932584269663</v>
       </c>
       <c r="X2">
-        <v>0.06819940786928524</v>
+        <v>0.05927785053632793</v>
       </c>
       <c r="Y2">
-        <v>0.05749119986552137</v>
+        <v>0.003011475306368701</v>
       </c>
       <c r="Z2">
-        <v>0.09818012591512591</v>
+        <v>0.03051137447448289</v>
       </c>
       <c r="AA2">
-        <v>0.005003844564878043</v>
+        <v>0.006211126134845741</v>
       </c>
       <c r="AB2">
-        <v>0.05828395219806196</v>
+        <v>0.04751674309153629</v>
       </c>
       <c r="AC2">
-        <v>-0.05328010763318392</v>
+        <v>-0.04130561695669054</v>
       </c>
       <c r="AD2">
-        <v>2548.6</v>
+        <v>2669.09</v>
       </c>
       <c r="AE2">
-        <v>6.502384981004589</v>
+        <v>7.874072903540214</v>
       </c>
       <c r="AF2">
-        <v>2555.102384981005</v>
+        <v>2676.96407290354</v>
       </c>
       <c r="AG2">
-        <v>2536.803384981005</v>
+        <v>2607.01407290354</v>
       </c>
       <c r="AH2">
-        <v>0.5444958203061877</v>
+        <v>0.503883557508746</v>
       </c>
       <c r="AI2">
-        <v>0.6129986380190243</v>
+        <v>0.6665142960927566</v>
       </c>
       <c r="AJ2">
-        <v>0.5427126089273543</v>
+        <v>0.4972642102260812</v>
       </c>
       <c r="AK2">
-        <v>0.6112921554178825</v>
+        <v>0.6606032779995262</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AN2">
-        <v>266.673642356388</v>
+        <v>271.8014256619144</v>
+      </c>
+      <c r="AO2">
+        <v>30.55248618784531</v>
       </c>
       <c r="AP2">
-        <v>265.4392994643721</v>
+        <v>265.4800481571833</v>
+      </c>
+      <c r="AQ2">
+        <v>30.55248618784531</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00384</v>
+        <v>-0.0294</v>
       </c>
       <c r="E3">
-        <v>-0.0249</v>
+        <v>-0.125</v>
       </c>
       <c r="G3">
-        <v>0.2254180602006689</v>
+        <v>0.2279850746268657</v>
       </c>
       <c r="H3">
-        <v>0.2254180602006689</v>
+        <v>0.2279850746268657</v>
       </c>
       <c r="I3">
-        <v>0.2283148051104204</v>
+        <v>0.2389876269829552</v>
       </c>
       <c r="J3">
-        <v>0.1816955517109105</v>
+        <v>0.1910988849348439</v>
       </c>
       <c r="K3">
-        <v>4.55</v>
+        <v>4.19</v>
       </c>
       <c r="L3">
-        <v>0.1521739130434783</v>
+        <v>0.1563432835820896</v>
       </c>
       <c r="M3">
-        <v>5.34</v>
+        <v>3.98</v>
       </c>
       <c r="N3">
-        <v>0.08266253869969041</v>
+        <v>0.06513911620294599</v>
       </c>
       <c r="O3">
-        <v>1.173626373626374</v>
+        <v>0.9498806682577565</v>
       </c>
       <c r="P3">
-        <v>5.34</v>
+        <v>3.98</v>
       </c>
       <c r="Q3">
-        <v>0.08266253869969041</v>
+        <v>0.06513911620294599</v>
       </c>
       <c r="R3">
-        <v>1.173626373626374</v>
+        <v>0.9498806682577565</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.59</v>
+        <v>3.85</v>
       </c>
       <c r="V3">
-        <v>0.05557275541795666</v>
+        <v>0.0630114566284779</v>
       </c>
       <c r="W3">
-        <v>0.1256906077348066</v>
+        <v>0.1180281690140845</v>
       </c>
       <c r="X3">
-        <v>0.05764150351620737</v>
+        <v>0.0464371020039641</v>
       </c>
       <c r="Y3">
-        <v>0.06804910421859925</v>
+        <v>0.07159106701012041</v>
       </c>
       <c r="Z3">
-        <v>0.8444672948522127</v>
+        <v>0.7955908123422586</v>
       </c>
       <c r="AA3">
-        <v>0.1534359510399929</v>
+        <v>0.1520365171030123</v>
       </c>
       <c r="AB3">
-        <v>0.05667408300446981</v>
+        <v>0.04467690957835233</v>
       </c>
       <c r="AC3">
-        <v>0.09676186803552313</v>
+        <v>0.10735960752466</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="AE3">
-        <v>2.666936635992149</v>
+        <v>1.775657984284003</v>
       </c>
       <c r="AF3">
-        <v>2.666936635992149</v>
+        <v>5.965657984284004</v>
       </c>
       <c r="AG3">
-        <v>-0.9230633640078509</v>
+        <v>2.115657984284004</v>
       </c>
       <c r="AH3">
-        <v>0.03964706539891942</v>
+        <v>0.08895250063276769</v>
       </c>
       <c r="AI3">
-        <v>0.06987557480516203</v>
+        <v>0.1563095803756498</v>
       </c>
       <c r="AJ3">
-        <v>-0.01449603911200256</v>
+        <v>0.03346730939366281</v>
       </c>
       <c r="AK3">
-        <v>-0.02669592664397595</v>
+        <v>0.06165284620953325</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.6020114942528736</v>
+      </c>
+      <c r="AO3">
+        <v>30.55248618784531</v>
       </c>
       <c r="AP3">
-        <v>-0.1186456766076929</v>
+        <v>0.3039738483166672</v>
+      </c>
+      <c r="AQ3">
+        <v>30.55248618784531</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +859,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0042</v>
+        <v>0.0237</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04281921470230507</v>
+        <v>0.05300666353367193</v>
       </c>
       <c r="J4">
-        <v>0.04281921470230507</v>
+        <v>0.05300666353367193</v>
       </c>
       <c r="K4">
-        <v>-5.48</v>
+        <v>-2.78</v>
       </c>
       <c r="L4">
-        <v>-0.2660194174757282</v>
+        <v>-0.1139344262295082</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,55 +901,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="V4">
-        <v>0.05779194898365882</v>
+        <v>0.1845869866174435</v>
       </c>
       <c r="W4">
-        <v>-0.04373503591380687</v>
+        <v>-0.02195892575039494</v>
       </c>
       <c r="X4">
-        <v>0.06819940786928524</v>
+        <v>0.05927785053632793</v>
       </c>
       <c r="Y4">
-        <v>-0.1119344437830921</v>
+        <v>-0.08123677628672288</v>
       </c>
       <c r="Z4">
-        <v>0.1168597929613285</v>
+        <v>0.1171763269140716</v>
       </c>
       <c r="AA4">
-        <v>0.005003844564878043</v>
+        <v>0.006211126134845741</v>
       </c>
       <c r="AB4">
-        <v>0.05828395219806196</v>
+        <v>0.04751674309153629</v>
       </c>
       <c r="AC4">
-        <v>-0.05328010763318392</v>
+        <v>-0.04130561695669054</v>
       </c>
       <c r="AD4">
-        <v>95.7</v>
+        <v>117.2</v>
       </c>
       <c r="AE4">
-        <v>3.639620885662578</v>
+        <v>4.933187048892024</v>
       </c>
       <c r="AF4">
-        <v>99.33962088566258</v>
+        <v>122.133187048892</v>
       </c>
       <c r="AG4">
-        <v>84.83962088566258</v>
+        <v>82.13318704889203</v>
       </c>
       <c r="AH4">
-        <v>0.2836333040632558</v>
+        <v>0.3604522570903564</v>
       </c>
       <c r="AI4">
-        <v>0.3927404514082335</v>
+        <v>0.4713143400881668</v>
       </c>
       <c r="AJ4">
-        <v>0.2526946943642229</v>
+        <v>0.2748462707907146</v>
       </c>
       <c r="AK4">
-        <v>0.3558117588449999</v>
+        <v>0.3748094396608526</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -946,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>59.44099378881987</v>
+        <v>51.40350877192983</v>
       </c>
       <c r="AP4">
-        <v>52.6954166991693</v>
+        <v>36.02332765302282</v>
       </c>
     </row>
     <row r="5">
@@ -975,34 +987,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0004650218556930794</v>
+        <v>0.004657106388284061</v>
       </c>
       <c r="J5">
-        <v>0.0004646019713989998</v>
+        <v>0.004657106388284061</v>
       </c>
       <c r="K5">
-        <v>221.3</v>
+        <v>88.7</v>
       </c>
       <c r="L5">
-        <v>0.8050200072753729</v>
+        <v>1.190604026845638</v>
       </c>
       <c r="M5">
-        <v>102</v>
+        <v>107.5</v>
       </c>
       <c r="N5">
-        <v>0.05598243688254665</v>
+        <v>0.04559141609058908</v>
       </c>
       <c r="O5">
-        <v>0.4609127880704925</v>
+        <v>1.211950394588501</v>
       </c>
       <c r="P5">
-        <v>102</v>
+        <v>107.5</v>
       </c>
       <c r="Q5">
-        <v>0.05598243688254665</v>
+        <v>0.04559141609058908</v>
       </c>
       <c r="R5">
-        <v>0.4609127880704925</v>
+        <v>1.211950394588501</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1011,55 +1023,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.209</v>
+        <v>26.1</v>
       </c>
       <c r="V5">
-        <v>0.0001147091108671789</v>
+        <v>0.01106917172059884</v>
       </c>
       <c r="W5">
-        <v>0.178915029509257</v>
+        <v>0.06228932584269663</v>
       </c>
       <c r="X5">
-        <v>0.09649405967865328</v>
+        <v>0.073535515191195</v>
       </c>
       <c r="Y5">
-        <v>0.08242096983060372</v>
+        <v>-0.01124618934849837</v>
       </c>
       <c r="Z5">
-        <v>0.08860225527616593</v>
+        <v>0.01921164571924158</v>
       </c>
       <c r="AA5">
-        <v>4.116478247170412e-05</v>
+        <v>8.947067800853011e-05</v>
       </c>
       <c r="AB5">
-        <v>0.06469727595234827</v>
+        <v>0.05192267154871194</v>
       </c>
       <c r="AC5">
-        <v>-0.06465611116987656</v>
+        <v>-0.05183320087070341</v>
       </c>
       <c r="AD5">
-        <v>2452.9</v>
+        <v>2547.7</v>
       </c>
       <c r="AE5">
-        <v>0.1958274593498625</v>
+        <v>1.165227870364187</v>
       </c>
       <c r="AF5">
-        <v>2453.09582745935</v>
+        <v>2548.865227870364</v>
       </c>
       <c r="AG5">
-        <v>2452.88682745935</v>
+        <v>2522.765227870364</v>
       </c>
       <c r="AH5">
-        <v>0.5738107229557008</v>
+        <v>0.5194593809772764</v>
       </c>
       <c r="AI5">
-        <v>0.6327147784394219</v>
+        <v>0.6853510416459978</v>
       </c>
       <c r="AJ5">
-        <v>0.5737898864838837</v>
+        <v>0.5168896267386793</v>
       </c>
       <c r="AK5">
-        <v>0.6326949783743898</v>
+        <v>0.6831272628378297</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1068,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>14688.02395209581</v>
+        <v>4392.586206896552</v>
       </c>
       <c r="AP5">
-        <v>14687.94507460689</v>
+        <v>4349.595220466145</v>
       </c>
     </row>
   </sheetData>
